--- a/lag/lag_config.xlsx
+++ b/lag/lag_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\BF-grading-range\lag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B05102-4ED1-401F-A02F-82795FF47390}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB27987-AF2E-4E8A-9B7C-1556033094D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="705" yWindow="300" windowWidth="17355" windowHeight="9975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1605" yWindow="495" windowWidth="17355" windowHeight="9975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -140,16 +140,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -434,15 +431,20 @@
   <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="23" width="5.625" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="19" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="57" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -590,10 +592,10 @@
       <c r="C3" s="2">
         <v>6</v>
       </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="2">
@@ -602,52 +604,52 @@
       <c r="G3" s="2">
         <v>6</v>
       </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3">
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
         <v>1</v>
       </c>
-      <c r="J3" s="3">
-        <v>0</v>
-      </c>
-      <c r="K3" s="3">
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
         <v>1</v>
       </c>
-      <c r="L3" s="3">
-        <v>0</v>
-      </c>
-      <c r="M3" s="3">
-        <v>6</v>
-      </c>
-      <c r="N3" s="3">
-        <v>0</v>
-      </c>
-      <c r="O3" s="3">
-        <v>6</v>
-      </c>
-      <c r="P3" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>6</v>
-      </c>
-      <c r="R3" s="3">
-        <v>4</v>
-      </c>
-      <c r="S3" s="3">
-        <v>6</v>
-      </c>
-      <c r="T3" s="3">
-        <v>4</v>
-      </c>
-      <c r="U3" s="3">
-        <v>6</v>
-      </c>
-      <c r="V3" s="3">
-        <v>4</v>
-      </c>
-      <c r="W3" s="3">
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>6</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>6</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>6</v>
+      </c>
+      <c r="R3" s="1">
+        <v>4</v>
+      </c>
+      <c r="S3" s="1">
+        <v>6</v>
+      </c>
+      <c r="T3" s="1">
+        <v>4</v>
+      </c>
+      <c r="U3" s="1">
+        <v>6</v>
+      </c>
+      <c r="V3" s="1">
+        <v>4</v>
+      </c>
+      <c r="W3" s="1">
         <v>6</v>
       </c>
     </row>
@@ -661,10 +663,10 @@
       <c r="C4" s="2">
         <v>6</v>
       </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="2">
@@ -673,52 +675,52 @@
       <c r="G4" s="2">
         <v>6</v>
       </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3">
-        <v>6</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0</v>
-      </c>
-      <c r="K4" s="3">
-        <v>6</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0</v>
-      </c>
-      <c r="M4" s="3">
-        <v>6</v>
-      </c>
-      <c r="N4" s="3">
-        <v>0</v>
-      </c>
-      <c r="O4" s="3">
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>6</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>6</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>6</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
         <v>1</v>
       </c>
-      <c r="P4" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>6</v>
-      </c>
-      <c r="R4" s="3">
-        <v>4</v>
-      </c>
-      <c r="S4" s="3">
-        <v>6</v>
-      </c>
-      <c r="T4" s="3">
-        <v>4</v>
-      </c>
-      <c r="U4" s="3">
-        <v>6</v>
-      </c>
-      <c r="V4" s="3">
-        <v>4</v>
-      </c>
-      <c r="W4" s="3">
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>6</v>
+      </c>
+      <c r="R4" s="1">
+        <v>4</v>
+      </c>
+      <c r="S4" s="1">
+        <v>6</v>
+      </c>
+      <c r="T4" s="1">
+        <v>4</v>
+      </c>
+      <c r="U4" s="1">
+        <v>6</v>
+      </c>
+      <c r="V4" s="1">
+        <v>4</v>
+      </c>
+      <c r="W4" s="1">
         <v>6</v>
       </c>
     </row>
@@ -732,10 +734,10 @@
       <c r="C5" s="2">
         <v>6</v>
       </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="2">
@@ -744,52 +746,52 @@
       <c r="G5" s="2">
         <v>6</v>
       </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
-        <v>6</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3">
-        <v>6</v>
-      </c>
-      <c r="L5" s="3">
-        <v>0</v>
-      </c>
-      <c r="M5" s="3">
-        <v>6</v>
-      </c>
-      <c r="N5" s="3">
-        <v>0</v>
-      </c>
-      <c r="O5" s="3">
-        <v>6</v>
-      </c>
-      <c r="P5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>6</v>
-      </c>
-      <c r="R5" s="3">
-        <v>4</v>
-      </c>
-      <c r="S5" s="3">
-        <v>6</v>
-      </c>
-      <c r="T5" s="3">
-        <v>4</v>
-      </c>
-      <c r="U5" s="3">
-        <v>6</v>
-      </c>
-      <c r="V5" s="3">
-        <v>4</v>
-      </c>
-      <c r="W5" s="3">
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>6</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>6</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>6</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>6</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>6</v>
+      </c>
+      <c r="R5" s="1">
+        <v>4</v>
+      </c>
+      <c r="S5" s="1">
+        <v>6</v>
+      </c>
+      <c r="T5" s="1">
+        <v>4</v>
+      </c>
+      <c r="U5" s="1">
+        <v>6</v>
+      </c>
+      <c r="V5" s="1">
+        <v>4</v>
+      </c>
+      <c r="W5" s="1">
         <v>6</v>
       </c>
     </row>
@@ -803,10 +805,10 @@
       <c r="C6" s="2">
         <v>6</v>
       </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="2">
@@ -815,52 +817,52 @@
       <c r="G6" s="2">
         <v>6</v>
       </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
-        <v>6</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3">
-        <v>6</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0</v>
-      </c>
-      <c r="M6" s="3">
-        <v>6</v>
-      </c>
-      <c r="N6" s="3">
-        <v>0</v>
-      </c>
-      <c r="O6" s="3">
-        <v>6</v>
-      </c>
-      <c r="P6" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>6</v>
-      </c>
-      <c r="R6" s="3">
-        <v>4</v>
-      </c>
-      <c r="S6" s="3">
-        <v>6</v>
-      </c>
-      <c r="T6" s="3">
-        <v>4</v>
-      </c>
-      <c r="U6" s="3">
-        <v>6</v>
-      </c>
-      <c r="V6" s="3">
-        <v>4</v>
-      </c>
-      <c r="W6" s="3">
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>6</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>6</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>6</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>6</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>6</v>
+      </c>
+      <c r="R6" s="1">
+        <v>4</v>
+      </c>
+      <c r="S6" s="1">
+        <v>6</v>
+      </c>
+      <c r="T6" s="1">
+        <v>4</v>
+      </c>
+      <c r="U6" s="1">
+        <v>6</v>
+      </c>
+      <c r="V6" s="1">
+        <v>4</v>
+      </c>
+      <c r="W6" s="1">
         <v>6</v>
       </c>
     </row>
@@ -917,25 +919,25 @@
         <v>6</v>
       </c>
       <c r="R7" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S7" s="2">
         <v>6</v>
       </c>
       <c r="T7" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U7" s="2">
         <v>6</v>
       </c>
       <c r="V7" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W7" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -945,10 +947,10 @@
       <c r="C8" s="2">
         <v>6</v>
       </c>
-      <c r="D8" s="3">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="D8" s="1">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1">
         <v>6</v>
       </c>
       <c r="F8" s="2">
@@ -957,52 +959,52 @@
       <c r="G8" s="2">
         <v>6</v>
       </c>
-      <c r="H8" s="3">
-        <v>4</v>
-      </c>
-      <c r="I8" s="3">
-        <v>6</v>
-      </c>
-      <c r="J8" s="3">
-        <v>4</v>
-      </c>
-      <c r="K8" s="3">
-        <v>6</v>
-      </c>
-      <c r="L8" s="3">
-        <v>4</v>
-      </c>
-      <c r="M8" s="3">
-        <v>6</v>
-      </c>
-      <c r="N8" s="3">
-        <v>4</v>
-      </c>
-      <c r="O8" s="3">
-        <v>6</v>
-      </c>
-      <c r="P8" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>6</v>
-      </c>
-      <c r="R8" s="3">
-        <v>4</v>
-      </c>
-      <c r="S8" s="3">
-        <v>6</v>
-      </c>
-      <c r="T8" s="3">
-        <v>4</v>
-      </c>
-      <c r="U8" s="3">
-        <v>6</v>
-      </c>
-      <c r="V8" s="3">
-        <v>4</v>
-      </c>
-      <c r="W8" s="3">
+      <c r="H8" s="1">
+        <v>4</v>
+      </c>
+      <c r="I8" s="1">
+        <v>6</v>
+      </c>
+      <c r="J8" s="1">
+        <v>4</v>
+      </c>
+      <c r="K8" s="1">
+        <v>6</v>
+      </c>
+      <c r="L8" s="1">
+        <v>4</v>
+      </c>
+      <c r="M8" s="1">
+        <v>6</v>
+      </c>
+      <c r="N8" s="1">
+        <v>4</v>
+      </c>
+      <c r="O8" s="1">
+        <v>6</v>
+      </c>
+      <c r="P8" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>6</v>
+      </c>
+      <c r="R8" s="1">
+        <v>4</v>
+      </c>
+      <c r="S8" s="1">
+        <v>6</v>
+      </c>
+      <c r="T8" s="1">
+        <v>4</v>
+      </c>
+      <c r="U8" s="1">
+        <v>6</v>
+      </c>
+      <c r="V8" s="1">
+        <v>4</v>
+      </c>
+      <c r="W8" s="1">
         <v>6</v>
       </c>
     </row>

--- a/lag/lag_config.xlsx
+++ b/lag/lag_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\BF-grading-range\lag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB27987-AF2E-4E8A-9B7C-1556033094D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3459B66-DE98-4492-BC6B-6274B47CCEC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1605" yWindow="495" windowWidth="17355" windowHeight="9975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3780" yWindow="210" windowWidth="17355" windowHeight="9975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -431,7 +431,7 @@
   <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -942,7 +942,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C8" s="2">
         <v>6</v>
@@ -954,7 +954,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G8" s="2">
         <v>6</v>

--- a/lag/lag_config.xlsx
+++ b/lag/lag_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\BF-grading-range\lag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3459B66-DE98-4492-BC6B-6274B47CCEC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1AC6045-262D-43F7-95D8-A2115271C0B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="210" windowWidth="17355" windowHeight="9975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="210" windowWidth="18435" windowHeight="9975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -431,7 +431,7 @@
   <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -592,11 +592,11 @@
       <c r="C3" s="2">
         <v>6</v>
       </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>6</v>
       </c>
       <c r="F3" s="2">
         <v>0</v>
@@ -604,52 +604,52 @@
       <c r="G3" s="2">
         <v>6</v>
       </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1">
-        <v>6</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0</v>
-      </c>
-      <c r="O3" s="1">
-        <v>6</v>
-      </c>
-      <c r="P3" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>6</v>
-      </c>
-      <c r="R3" s="1">
-        <v>4</v>
-      </c>
-      <c r="S3" s="1">
-        <v>6</v>
-      </c>
-      <c r="T3" s="1">
-        <v>4</v>
-      </c>
-      <c r="U3" s="1">
-        <v>6</v>
-      </c>
-      <c r="V3" s="1">
-        <v>4</v>
-      </c>
-      <c r="W3" s="1">
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>6</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>6</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>6</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <v>6</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>6</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2">
+        <v>6</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0</v>
+      </c>
+      <c r="U3" s="2">
+        <v>6</v>
+      </c>
+      <c r="V3" s="2">
+        <v>0</v>
+      </c>
+      <c r="W3" s="2">
         <v>6</v>
       </c>
     </row>
@@ -663,11 +663,11 @@
       <c r="C4" s="2">
         <v>6</v>
       </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>6</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
@@ -675,52 +675,52 @@
       <c r="G4" s="2">
         <v>6</v>
       </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>6</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>6</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1">
-        <v>6</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0</v>
-      </c>
-      <c r="O4" s="1">
-        <v>1</v>
-      </c>
-      <c r="P4" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>6</v>
-      </c>
-      <c r="R4" s="1">
-        <v>4</v>
-      </c>
-      <c r="S4" s="1">
-        <v>6</v>
-      </c>
-      <c r="T4" s="1">
-        <v>4</v>
-      </c>
-      <c r="U4" s="1">
-        <v>6</v>
-      </c>
-      <c r="V4" s="1">
-        <v>4</v>
-      </c>
-      <c r="W4" s="1">
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>6</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>6</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>6</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>6</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>6</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2">
+        <v>6</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0</v>
+      </c>
+      <c r="U4" s="2">
+        <v>6</v>
+      </c>
+      <c r="V4" s="2">
+        <v>0</v>
+      </c>
+      <c r="W4" s="2">
         <v>6</v>
       </c>
     </row>
@@ -734,11 +734,11 @@
       <c r="C5" s="2">
         <v>6</v>
       </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>6</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
@@ -746,52 +746,52 @@
       <c r="G5" s="2">
         <v>6</v>
       </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>6</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>6</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1">
-        <v>6</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1">
-        <v>6</v>
-      </c>
-      <c r="P5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>6</v>
-      </c>
-      <c r="R5" s="1">
-        <v>4</v>
-      </c>
-      <c r="S5" s="1">
-        <v>6</v>
-      </c>
-      <c r="T5" s="1">
-        <v>4</v>
-      </c>
-      <c r="U5" s="1">
-        <v>6</v>
-      </c>
-      <c r="V5" s="1">
-        <v>4</v>
-      </c>
-      <c r="W5" s="1">
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>6</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>6</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>6</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>6</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>6</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0</v>
+      </c>
+      <c r="S5" s="2">
+        <v>6</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0</v>
+      </c>
+      <c r="U5" s="2">
+        <v>6</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0</v>
+      </c>
+      <c r="W5" s="2">
         <v>6</v>
       </c>
     </row>
@@ -805,11 +805,11 @@
       <c r="C6" s="2">
         <v>6</v>
       </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>6</v>
       </c>
       <c r="F6" s="2">
         <v>0</v>
@@ -817,52 +817,52 @@
       <c r="G6" s="2">
         <v>6</v>
       </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>6</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>6</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1">
-        <v>6</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0</v>
-      </c>
-      <c r="O6" s="1">
-        <v>6</v>
-      </c>
-      <c r="P6" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>6</v>
-      </c>
-      <c r="R6" s="1">
-        <v>4</v>
-      </c>
-      <c r="S6" s="1">
-        <v>6</v>
-      </c>
-      <c r="T6" s="1">
-        <v>4</v>
-      </c>
-      <c r="U6" s="1">
-        <v>6</v>
-      </c>
-      <c r="V6" s="1">
-        <v>4</v>
-      </c>
-      <c r="W6" s="1">
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>6</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>6</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>6</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>6</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>6</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0</v>
+      </c>
+      <c r="S6" s="2">
+        <v>6</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0</v>
+      </c>
+      <c r="U6" s="2">
+        <v>6</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0</v>
+      </c>
+      <c r="W6" s="2">
         <v>6</v>
       </c>
     </row>
@@ -871,7 +871,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C7" s="2">
         <v>6</v>
@@ -919,19 +919,19 @@
         <v>6</v>
       </c>
       <c r="R7" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S7" s="2">
         <v>6</v>
       </c>
       <c r="T7" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U7" s="2">
         <v>6</v>
       </c>
       <c r="V7" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W7" s="2">
         <v>6</v>
@@ -942,69 +942,69 @@
         <v>18</v>
       </c>
       <c r="B8" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C8" s="2">
         <v>6</v>
       </c>
-      <c r="D8" s="1">
-        <v>4</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
         <v>6</v>
       </c>
       <c r="F8" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G8" s="2">
         <v>6</v>
       </c>
-      <c r="H8" s="1">
-        <v>4</v>
-      </c>
-      <c r="I8" s="1">
-        <v>6</v>
-      </c>
-      <c r="J8" s="1">
-        <v>4</v>
-      </c>
-      <c r="K8" s="1">
-        <v>6</v>
-      </c>
-      <c r="L8" s="1">
-        <v>4</v>
-      </c>
-      <c r="M8" s="1">
-        <v>6</v>
-      </c>
-      <c r="N8" s="1">
-        <v>4</v>
-      </c>
-      <c r="O8" s="1">
-        <v>6</v>
-      </c>
-      <c r="P8" s="1">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>6</v>
-      </c>
-      <c r="R8" s="1">
-        <v>4</v>
-      </c>
-      <c r="S8" s="1">
-        <v>6</v>
-      </c>
-      <c r="T8" s="1">
-        <v>4</v>
-      </c>
-      <c r="U8" s="1">
-        <v>6</v>
-      </c>
-      <c r="V8" s="1">
-        <v>4</v>
-      </c>
-      <c r="W8" s="1">
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>6</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>6</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>6</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>6</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>6</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2">
+        <v>6</v>
+      </c>
+      <c r="T8" s="2">
+        <v>0</v>
+      </c>
+      <c r="U8" s="2">
+        <v>6</v>
+      </c>
+      <c r="V8" s="2">
+        <v>0</v>
+      </c>
+      <c r="W8" s="2">
         <v>6</v>
       </c>
     </row>
